--- a/biology/Zoologie/Histoire_évolutive_des_gastéropodes/Histoire_évolutive_des_gastéropodes.xlsx
+++ b/biology/Zoologie/Histoire_évolutive_des_gastéropodes/Histoire_évolutive_des_gastéropodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_gast%C3%A9ropodes</t>
+          <t>Histoire_évolutive_des_gastéropodes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers gastéropodes  sont exclusivement marins, les plus anciens représentants du groupe, les genres Chippewaella et Strepsodiscus, ont été datés de la fin du Cambrien.[réf. nécessaire], ils sont issus de l'explosion cambrienne qui a débuté il y a 540 millions années. Au cours de cette courte période géologique tous les grands embranchements animaux divergent et on voit apparaître les premières créatures avec des squelettes minéralisés, Brachiopode ou Mollusque.
 Leurs parents les plus proches vivant seraient les céphalopodes.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_gast%C3%A9ropodes</t>
+          <t>Histoire_évolutive_des_gastéropodes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Les gastéropodes terrestres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers Pulmonata, c'est-à-dire les gastéropodes terrestres, sont des escargots du genre Maturipupa. Leurs fossiles ont été datés du Carbonifère. Ils ont été découverts en Europe. Les escargots terrestres proches des escargots modernes sont rares avant le Crétacé, où le genre Helix est apparu. Les limaces sont également issues de ce groupe.
 Secondairement, certains d'entre eux sont (re)devenus aquatiques, colonisant les eaux douces continentales (Ce sont essentiellement les lymnées et les planorbes).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_gast%C3%A9ropodes</t>
+          <t>Histoire_évolutive_des_gastéropodes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Histoire de cette théorie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification traditionnelle était basée sur des observations morphologiques. Une nouvelle classification, basée sur les études génétiques, a été proposée en 1997 par Ponder &amp; Lindberg. Une autre, plus complète, l'a été par la Taxonomie des Gastropoda (Bouchet &amp; Rocroi, 2005).
 </t>
